--- a/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>ANTE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -665,12 +665,14 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -692,22 +694,22 @@
         <v>43646</v>
       </c>
       <c r="E7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
-      </c>
-      <c r="J7" s="2">
-        <v>42369</v>
       </c>
       <c r="K7" s="2">
         <v>42277</v>
@@ -721,22 +723,22 @@
         <v>12800</v>
       </c>
       <c r="E8" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F8" s="3">
         <v>14700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>11000</v>
       </c>
       <c r="K8" s="3">
         <v>10400</v>
@@ -750,22 +752,22 @@
         <v>11900</v>
       </c>
       <c r="E9" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F9" s="3">
         <v>18500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>31200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>29500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19600</v>
-      </c>
-      <c r="J9" s="3">
-        <v>18400</v>
       </c>
       <c r="K9" s="3">
         <v>22900</v>
@@ -779,22 +781,22 @@
         <v>900</v>
       </c>
       <c r="E10" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F10" s="3">
         <v>-3800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-14700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-20500</v>
       </c>
       <c r="H10" s="3">
         <v>-20500</v>
       </c>
       <c r="I10" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="J10" s="3">
         <v>-12100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-7400</v>
       </c>
       <c r="K10" s="3">
         <v>-12500</v>
@@ -878,14 +880,14 @@
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>600</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>67300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -943,26 +945,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>22500</v>
       </c>
       <c r="E17" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F17" s="3">
         <v>36000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>124400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>78200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>60500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>45900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>33300</v>
       </c>
       <c r="K17" s="3">
         <v>32600</v>
@@ -972,26 +974,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-9700</v>
       </c>
       <c r="E18" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-21300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-111300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-67500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-51500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-38400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-22300</v>
       </c>
       <c r="K18" s="3">
         <v>-22200</v>
@@ -1014,26 +1016,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>4200</v>
       </c>
       <c r="E20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>900</v>
       </c>
       <c r="K20" s="3">
         <v>500</v>
@@ -1101,26 +1103,26 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>-5400</v>
       </c>
       <c r="E23" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-20400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-109400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-66600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-49300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-35500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-21400</v>
       </c>
       <c r="K23" s="3">
         <v>-21600</v>
@@ -1134,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2200</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1188,26 +1190,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-5500</v>
       </c>
       <c r="E26" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-20400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-109600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-67000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-54700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-23600</v>
       </c>
       <c r="K26" s="3">
         <v>-21700</v>
@@ -1217,26 +1219,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-4800</v>
       </c>
       <c r="E27" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-18500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-104100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-52400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-37000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-19600</v>
       </c>
       <c r="K27" s="3">
         <v>-19700</v>
@@ -1293,8 +1295,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>204100</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>10000</v>
@@ -1362,26 +1364,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-4200</v>
       </c>
       <c r="E32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-900</v>
       </c>
       <c r="K32" s="3">
         <v>-500</v>
@@ -1391,26 +1393,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-4800</v>
       </c>
       <c r="E33" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-18500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-104100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-52400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-37000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>184500</v>
       </c>
       <c r="K33" s="3">
         <v>-9700</v>
@@ -1449,26 +1451,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-4800</v>
       </c>
       <c r="E35" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-18500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-104100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-52400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-37000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>184500</v>
       </c>
       <c r="K35" s="3">
         <v>-9700</v>
@@ -1487,22 +1489,22 @@
         <v>43646</v>
       </c>
       <c r="E38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
-      </c>
-      <c r="J38" s="2">
-        <v>42369</v>
       </c>
       <c r="K38" s="2">
         <v>42277</v>
@@ -1539,25 +1541,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="E41" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F41" s="3">
         <v>4400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>54100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>117500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>218600</v>
-      </c>
-      <c r="J41" s="3">
-        <v>87000</v>
       </c>
       <c r="K41" s="3">
         <v>123900</v>
@@ -1579,14 +1581,14 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>3600</v>
-      </c>
-      <c r="J42" s="3">
-        <v>3700</v>
       </c>
       <c r="K42" s="3">
         <v>3800</v>
@@ -1600,22 +1602,22 @@
         <v>11100</v>
       </c>
       <c r="E43" s="3">
-        <v>13200</v>
+        <v>8000</v>
       </c>
       <c r="F43" s="3">
         <v>13200</v>
       </c>
       <c r="G43" s="3">
+        <v>13200</v>
+      </c>
+      <c r="H43" s="3">
         <v>10900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>212900</v>
       </c>
       <c r="K43" s="3">
         <v>20000</v>
@@ -1658,22 +1660,22 @@
         <v>44500</v>
       </c>
       <c r="E45" s="3">
+        <v>42900</v>
+      </c>
+      <c r="F45" s="3">
         <v>62400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>70000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>95400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>77100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>70000</v>
       </c>
       <c r="K45" s="3">
         <v>188800</v>
@@ -1687,22 +1689,22 @@
         <v>63600</v>
       </c>
       <c r="E46" s="3">
+        <v>66400</v>
+      </c>
+      <c r="F46" s="3">
         <v>79900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>98600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>160400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>205200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>272700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>342600</v>
       </c>
       <c r="K46" s="3">
         <v>336500</v>
@@ -1716,22 +1718,22 @@
         <v>45500</v>
       </c>
       <c r="E47" s="3">
+        <v>46300</v>
+      </c>
+      <c r="F47" s="3">
         <v>100300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>102400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>102000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>83900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>90200</v>
-      </c>
-      <c r="J47" s="3">
-        <v>89600</v>
       </c>
       <c r="K47" s="3">
         <v>17800</v>
@@ -1742,25 +1744,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13900</v>
+        <v>16100</v>
       </c>
       <c r="E48" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F48" s="3">
         <v>14800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>39900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>61000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>43700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>48300</v>
       </c>
       <c r="K48" s="3">
         <v>50300</v>
@@ -1773,23 +1775,23 @@
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>1500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2300</v>
       </c>
       <c r="K49" s="3">
         <v>2500</v>
@@ -1861,22 +1863,22 @@
         <v>3500</v>
       </c>
       <c r="E52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F52" s="3">
         <v>8100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>29400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>49300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>53200</v>
       </c>
       <c r="K52" s="3">
         <v>59100</v>
@@ -1919,22 +1921,22 @@
         <v>128800</v>
       </c>
       <c r="E54" s="3">
+        <v>129800</v>
+      </c>
+      <c r="F54" s="3">
         <v>203200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>225000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>334200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>381200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>457900</v>
-      </c>
-      <c r="J54" s="3">
-        <v>531600</v>
       </c>
       <c r="K54" s="3">
         <v>466200</v>
@@ -1974,22 +1976,22 @@
         <v>33400</v>
       </c>
       <c r="E57" s="3">
+        <v>39300</v>
+      </c>
+      <c r="F57" s="3">
         <v>46200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>51700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>36400</v>
       </c>
       <c r="K57" s="3">
         <v>33900</v>
@@ -2003,11 +2005,11 @@
         <v>6100</v>
       </c>
       <c r="E58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F58" s="3">
         <v>6200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2017,8 +2019,8 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2029,25 +2031,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>75400</v>
+        <v>76400</v>
       </c>
       <c r="E59" s="3">
+        <v>67200</v>
+      </c>
+      <c r="F59" s="3">
         <v>25800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>50700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>40100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>81800</v>
       </c>
       <c r="K59" s="3">
         <v>204900</v>
@@ -2061,22 +2063,22 @@
         <v>116000</v>
       </c>
       <c r="E60" s="3">
+        <v>112700</v>
+      </c>
+      <c r="F60" s="3">
         <v>78200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>75800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>102400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>90200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>67300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>107400</v>
       </c>
       <c r="K60" s="3">
         <v>238800</v>
@@ -2090,7 +2092,7 @@
         <v>2700</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2115,26 +2117,26 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>1100</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>24700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>26500</v>
       </c>
       <c r="K62" s="3">
         <v>1300</v>
@@ -2232,25 +2234,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>119700</v>
+        <v>82100</v>
       </c>
       <c r="E66" s="3">
+        <v>78400</v>
+      </c>
+      <c r="F66" s="3">
         <v>76600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>111100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>112500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>102700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>145000</v>
       </c>
       <c r="K66" s="3">
         <v>254300</v>
@@ -2389,26 +2391,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>-267200</v>
       </c>
       <c r="E72" s="3">
+        <v>-262400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-190900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-172300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-68300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>21200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>49900</v>
       </c>
       <c r="K72" s="3">
         <v>-134000</v>
@@ -2505,26 +2507,26 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
+      <c r="D76" s="3">
+        <v>46700</v>
       </c>
       <c r="E76" s="3">
+        <v>51400</v>
+      </c>
+      <c r="F76" s="3">
         <v>126600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>147600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>223100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>268700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>355200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>386600</v>
       </c>
       <c r="K76" s="3">
         <v>211900</v>
@@ -2572,22 +2574,22 @@
         <v>43646</v>
       </c>
       <c r="E80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
-      </c>
-      <c r="J80" s="2">
-        <v>42369</v>
       </c>
       <c r="K80" s="2">
         <v>42277</v>
@@ -2597,26 +2599,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-4800</v>
       </c>
       <c r="E81" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-18500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-104100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-52400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-37000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>184500</v>
       </c>
       <c r="K81" s="3">
         <v>-9700</v>

--- a/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>ANTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,157 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E8" s="3">
         <v>12800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E9" s="3">
         <v>11900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>31200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>29500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-4300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-3800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-14700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-20500</v>
       </c>
       <c r="I10" s="3">
         <v>-20500</v>
       </c>
       <c r="J10" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="K10" s="3">
         <v>-12100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,13 +827,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>1200</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -843,8 +857,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,26 +889,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>67300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
@@ -901,8 +921,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +953,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +966,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E17" s="3">
         <v>22500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>124400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>78200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>60500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-111300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-67500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-51500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-38400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,37 +1044,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E20" s="3">
         <v>4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1069,8 +1106,11 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1098,66 +1138,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-109400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-66600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-49300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-35500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1234,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-109600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-67000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-54700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-71600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-104100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-52400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-37000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1330,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,11 +1359,14 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1394,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1426,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-71600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-104100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-52400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-37000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-28600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1522,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-71600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-104100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-52400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-37000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-28600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1607,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,37 +1621,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>54100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>117500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>218600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>123900</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1584,46 +1674,52 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>3600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E43" s="3">
         <v>11100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>13200</v>
       </c>
       <c r="G43" s="3">
         <v>13200</v>
       </c>
       <c r="H43" s="3">
+        <v>13200</v>
+      </c>
+      <c r="I43" s="3">
         <v>10900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1651,153 +1747,171 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E45" s="3">
         <v>44500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>62400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>70000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>95400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>77100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>38500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>188800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E46" s="3">
         <v>63600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>66400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>79900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>98600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>160400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>205200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>272700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E47" s="3">
         <v>45500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>46300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>100300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>102400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>102000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>83900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>90200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E48" s="3">
         <v>16100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>39900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>61000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>43700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>1500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1939,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +1971,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>3500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>30400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>29400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>49300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2035,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E54" s="3">
         <v>128800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>129800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>203200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>225000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>334200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>381200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>457900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2083,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,52 +2097,56 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E57" s="3">
         <v>33400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>39300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>46200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>48500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>40400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6100</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>6100</v>
       </c>
       <c r="F58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G58" s="3">
         <v>6200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2022,81 +2156,90 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E59" s="3">
         <v>76400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>50700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>40100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>204900</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>113500</v>
+      </c>
+      <c r="E60" s="3">
         <v>116000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>112700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>78200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>75800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>102400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>90200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>67300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>238800</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2112,37 +2255,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>24700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2319,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2351,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2383,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E66" s="3">
         <v>82100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>76600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>77400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>111100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>112500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>102700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>254300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2431,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2461,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2493,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2525,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2557,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-293900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-267200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-262400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-190900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-172300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-68300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2621,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2653,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2685,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E76" s="3">
         <v>46700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>51400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>126600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>147600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>223100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>268700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>355200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>211900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2749,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-71600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-104100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-52400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-37000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-28600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +2834,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2665,8 +2864,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2896,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2928,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2960,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2992,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,8 +3024,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2839,8 +3056,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,8 +3072,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2881,8 +3102,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3134,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,8 +3166,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2968,8 +3198,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3214,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3244,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3276,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3308,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,8 +3340,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3126,8 +3372,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3155,8 +3404,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3182,6 +3434,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ANTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,170 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E8" s="3">
         <v>13200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E9" s="3">
         <v>21700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>27800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>31200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>29500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-8500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-4300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-3800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-14700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-20500</v>
       </c>
       <c r="J10" s="3">
         <v>-20500</v>
       </c>
       <c r="K10" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="L10" s="3">
         <v>-12100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,17 +841,18 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
@@ -860,8 +874,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,29 +909,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>67300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
@@ -924,8 +944,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,8 +979,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -967,72 +993,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E17" s="3">
         <v>36900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>124400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>78200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>60500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-111300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-67500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-51500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-38400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,40 +1078,44 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1109,8 +1146,11 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1141,72 +1181,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-109400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-66600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-49300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-35500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,72 +1286,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-109600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-67000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-54700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21700</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-71600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-104100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-52400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-37000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-28600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1333,8 +1391,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,11 +1423,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1397,8 +1461,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1429,72 +1496,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-71600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-104100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-52400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-37000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-28600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1525,77 +1601,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-71600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-104100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-52400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-37000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-28600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1608,8 +1693,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1622,104 +1708,114 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>54100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>117500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>218600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>123900</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>3600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E43" s="3">
         <v>8400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>13200</v>
       </c>
       <c r="H43" s="3">
         <v>13200</v>
       </c>
       <c r="I43" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J43" s="3">
         <v>10900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1750,136 +1846,151 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E45" s="3">
         <v>29500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>62400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>70000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>95400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>77100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>188800</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E46" s="3">
         <v>38900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>63600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>66400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>79900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>98600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>160400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>205200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>272700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E47" s="3">
         <v>43000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>45500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>46300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>100300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>102400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>102000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>83900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>90200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E48" s="3">
         <v>14900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>39900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>61000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1889,29 +2000,32 @@
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>1500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1942,8 +2056,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1974,8 +2091,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1983,31 +2103,34 @@
         <v>900</v>
       </c>
       <c r="E52" s="3">
+        <v>900</v>
+      </c>
+      <c r="F52" s="3">
         <v>3500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>30400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>49300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2038,40 +2161,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E54" s="3">
         <v>97700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>128800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>129800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>203200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>225000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>334200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>381200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>457900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2084,8 +2213,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,58 +2228,62 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E57" s="3">
         <v>35500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>39300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>46200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>48500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>40400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>6100</v>
       </c>
       <c r="F58" s="3">
         <v>6100</v>
       </c>
       <c r="G58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H58" s="3">
         <v>6200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2159,90 +2293,99 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E59" s="3">
         <v>77900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>76400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>67200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>50700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>49800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>204900</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E60" s="3">
         <v>113500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>116000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>112700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>78200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>75800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>102400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>90200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>67300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>238800</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2258,40 +2401,46 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>24700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2322,8 +2471,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2354,8 +2506,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2386,40 +2541,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E66" s="3">
         <v>77200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>78400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>76600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>77400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>111100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>112500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>254300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2432,8 +2593,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2464,8 +2626,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2496,8 +2661,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2528,8 +2696,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2560,40 +2731,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-299100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-293900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-267200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-262400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-190900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-172300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-68300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2624,8 +2801,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2656,8 +2836,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2688,40 +2871,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>46700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>51400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>126600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>147600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>223100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>268700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>355200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>211900</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2752,77 +2941,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-71600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-104100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-52400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-37000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-28600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2835,8 +3033,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2867,8 +3066,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2899,8 +3101,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2931,8 +3136,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2963,8 +3171,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2995,8 +3206,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3027,8 +3241,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3059,8 +3276,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3073,8 +3293,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3105,8 +3326,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3137,8 +3361,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3169,8 +3396,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3201,8 +3431,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3215,8 +3448,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3247,8 +3481,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3279,8 +3516,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3311,8 +3551,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3343,8 +3586,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3375,8 +3621,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3407,8 +3656,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3437,6 +3689,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>ANTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E8" s="3">
         <v>12200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E9" s="3">
         <v>11100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>27800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>31200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>29500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-8500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-4300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-3800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-14700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-20500</v>
       </c>
       <c r="K10" s="3">
         <v>-20500</v>
       </c>
       <c r="L10" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="M10" s="3">
         <v>-12100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,20 +855,21 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
@@ -877,8 +891,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,32 +929,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>67300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
@@ -947,8 +967,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,8 +1005,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,43 +1020,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E17" s="3">
         <v>16800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>124400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>78200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>60500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1038,34 +1068,37 @@
         <v>-4600</v>
       </c>
       <c r="E18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-23700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-27400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-21300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-111300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-67500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-51500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-38400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,43 +1112,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1149,8 +1186,11 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1184,78 +1224,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-109400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-66600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-49300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-35500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-10200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-109600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-67000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-54700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-34500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-71600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-104100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-52400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-37000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-28600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,11 +1487,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-71600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-104100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-52400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-37000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-28600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-71600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-104100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-52400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-37000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-28600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,43 +1795,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>54100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>117500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>218600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>123900</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,48 +1864,54 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>3600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E43" s="3">
         <v>11800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>13200</v>
       </c>
       <c r="I43" s="3">
         <v>13200</v>
       </c>
       <c r="J43" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K43" s="3">
         <v>10900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1849,148 +1945,163 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E45" s="3">
         <v>26900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>62400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>70000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>95400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>77100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>188800</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E46" s="3">
         <v>40200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>38900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>63600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>66400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>79900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>98600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>160400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>205200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>272700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E47" s="3">
         <v>41000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>43000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>45500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>46300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>100300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>102400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>102000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>83900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>90200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E48" s="3">
         <v>13700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>39900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>61000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2003,29 +2114,32 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>1500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2211,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>900</v>
       </c>
       <c r="F52" s="3">
+        <v>900</v>
+      </c>
+      <c r="G52" s="3">
         <v>3500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>30400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>49300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E54" s="3">
         <v>95800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>97700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>128800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>129800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>203200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>225000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>334200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>381200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>457900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,64 +2359,68 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E57" s="3">
         <v>37400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>46200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>48500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>6100</v>
       </c>
       <c r="G58" s="3">
         <v>6100</v>
       </c>
       <c r="H58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I58" s="3">
         <v>6200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2296,99 +2430,108 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E59" s="3">
         <v>77100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>77900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>76400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>67200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>50700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>204900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E60" s="3">
         <v>117800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>113500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>116000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>112700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>78200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>75800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>102400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>90200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>67300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>238800</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2404,43 +2547,49 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>24700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E66" s="3">
         <v>79900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>78400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>76600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>77400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>111100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>112500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>254300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-286400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-299100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-293900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-267200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-262400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-190900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-172300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-68300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E76" s="3">
         <v>16000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>46700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>51400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>126600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>147600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>223100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>268700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>355200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>211900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-71600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-104100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-52400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-37000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-28600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,8 +3232,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3069,8 +3268,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,8 +3458,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3279,8 +3496,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,8 +3514,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3329,8 +3550,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,8 +3626,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3434,8 +3664,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,8 +3682,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3484,8 +3718,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,8 +3832,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3624,8 +3870,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3659,8 +3908,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3692,6 +3944,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>ANTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E8" s="3">
         <v>11300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E9" s="3">
         <v>8500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>21700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>27800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>29500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-8500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-4300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-3800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-14700</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-20500</v>
       </c>
       <c r="L10" s="3">
         <v>-20500</v>
       </c>
       <c r="M10" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="N10" s="3">
         <v>-12100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,23 +869,24 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,35 +949,38 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>67300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
@@ -970,8 +990,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E17" s="3">
         <v>15900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>124400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>78200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>60500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>45900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="E18" s="3">
         <v>-4600</v>
       </c>
       <c r="F18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-23700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-27400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-21300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-111300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-67500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-51500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-38400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,46 +1146,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>6400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1189,8 +1226,11 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1227,84 +1267,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-109400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-66600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-49300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-35500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-10200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E26" s="3">
         <v>12000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-109600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-67000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-54700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-34500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>12700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-71600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-104100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-52400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-37000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-28600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,11 +1551,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>12700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-71600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-104100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-52400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-37000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-28600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>12700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-71600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-104100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-52400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-37000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-28600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,69 +1882,73 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>117500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>218600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>123900</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>2100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1867,51 +1957,57 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>3600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E43" s="3">
         <v>10400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>13200</v>
       </c>
       <c r="J43" s="3">
         <v>13200</v>
       </c>
       <c r="K43" s="3">
+        <v>13200</v>
+      </c>
+      <c r="L43" s="3">
         <v>10900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1948,198 +2044,216 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E45" s="3">
         <v>47900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>62400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>70000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>95400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>77100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>38500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>188800</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E46" s="3">
         <v>58600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>40200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>38900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>63600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>66400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>79900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>98600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>160400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>205200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>272700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E47" s="3">
         <v>42500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>41000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>43000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>45500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>46300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>100300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>102400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>102000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>83900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>90200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E48" s="3">
         <v>13600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>39900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>61000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>43700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>1500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>900</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
       </c>
       <c r="G52" s="3">
+        <v>900</v>
+      </c>
+      <c r="H52" s="3">
         <v>3500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>49300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E54" s="3">
         <v>115100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>128800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>129800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>203200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>225000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>334200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>381200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>457900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,70 +2490,74 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E57" s="3">
         <v>22200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>46200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>48500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>6100</v>
       </c>
       <c r="H58" s="3">
         <v>6100</v>
       </c>
       <c r="I58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J58" s="3">
         <v>6200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2433,87 +2567,96 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E59" s="3">
         <v>85900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>77100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>77900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>76400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>67200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>25800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>49800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>204900</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E60" s="3">
         <v>113800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>117800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>113500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>116000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>112700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>78200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>75800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>102400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>90200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>67300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>238800</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2521,20 +2664,20 @@
         <v>2600</v>
       </c>
       <c r="E61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F61" s="3">
         <v>2500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2550,8 +2693,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2559,37 +2705,40 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>24700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E66" s="3">
         <v>83500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>79900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>78400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>76600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>77400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>111100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>112500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>102700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>254300</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-292800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-286400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-299100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-293900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-267200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-262400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-190900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-172300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-68300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E76" s="3">
         <v>31600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>46700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>51400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>126600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>147600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>223100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>268700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>355200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>211900</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>12700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-71600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-104100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-52400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-37000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-28600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,8 +3431,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3271,8 +3470,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,8 +3675,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3499,8 +3716,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,8 +3735,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3553,8 +3774,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,8 +3856,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3667,8 +3897,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,8 +3916,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3721,8 +3955,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,8 +4078,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3873,8 +4119,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3911,8 +4160,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3947,6 +4199,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>ANTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E8" s="3">
         <v>8800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E9" s="3">
         <v>6800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>21700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>29500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-8500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-4300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-3800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-14700</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-20500</v>
       </c>
       <c r="M10" s="3">
         <v>-20500</v>
       </c>
       <c r="N10" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="O10" s="3">
         <v>-12100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,17 +893,17 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,38 +969,41 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>67300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1013,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>13300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>124400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>78200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>60500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>45900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-4600</v>
       </c>
       <c r="F18" s="3">
         <v>-4600</v>
       </c>
       <c r="G18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-23700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-111300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-67500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-51500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-38400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,49 +1180,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1229,8 +1266,11 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1270,90 +1310,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-109400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-66600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-49300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-35500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-10200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-109600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-67000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-54700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-34500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-71600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-104100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-52400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-37000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-28600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,11 +1615,14 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-71600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-104100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-52400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-37000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-28600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-71600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-104100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-52400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-37000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-28600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,58 +1969,62 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>117500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>218600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>123900</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>700</v>
+      </c>
+      <c r="E42" s="3">
         <v>2100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
@@ -1950,8 +2040,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1960,54 +2050,60 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>3600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E43" s="3">
         <v>7100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>13200</v>
       </c>
       <c r="K43" s="3">
         <v>13200</v>
       </c>
       <c r="L43" s="3">
+        <v>13200</v>
+      </c>
+      <c r="M43" s="3">
         <v>10900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2047,172 +2143,187 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E45" s="3">
         <v>27500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>47900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>44500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>62400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>70000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>95400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>77100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>38500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>188800</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E46" s="3">
         <v>37600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>58600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>40200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>38900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>63600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>66400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>79900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>98600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>160400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>205200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>272700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E47" s="3">
         <v>41200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>42500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>41000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>43000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>45500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>46300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>100300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>102400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>102000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>83900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>90200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E48" s="3">
         <v>19400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>39900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>61000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>43700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2241,19 +2352,22 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>1500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>900</v>
       </c>
       <c r="G52" s="3">
         <v>900</v>
       </c>
       <c r="H52" s="3">
+        <v>900</v>
+      </c>
+      <c r="I52" s="3">
         <v>3500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>30400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>49300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E54" s="3">
         <v>98900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>115100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>97700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>128800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>129800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>203200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>225000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>334200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>381200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>457900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,76 +2621,80 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E57" s="3">
         <v>23200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>39300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>46200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>51700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E58" s="3">
         <v>6000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>6100</v>
       </c>
       <c r="I58" s="3">
         <v>6100</v>
       </c>
       <c r="J58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K58" s="3">
         <v>6200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2570,117 +2704,126 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E59" s="3">
         <v>68800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>85900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>77100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>77900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>76400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>67200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>50700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>49800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>204900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E60" s="3">
         <v>98000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>113800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>117800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>113500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>116000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>112700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>78200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>75800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>102400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>90200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>67300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>238800</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>2600</v>
       </c>
       <c r="F61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G61" s="3">
         <v>2500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2696,8 +2839,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2708,37 +2854,40 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>24700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E66" s="3">
         <v>67400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>83500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>79900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>77200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>78400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>76600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>111100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>112500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>102700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>254300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-304900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-292800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-286400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-299100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-293900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-267200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-262400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-190900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-172300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-68300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E76" s="3">
         <v>31500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>46700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>51400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>126600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>147600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>223100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>268700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>355200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>211900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-71600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-104100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-52400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-37000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-28600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,8 +3630,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3473,8 +3672,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,8 +3892,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3719,8 +3936,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,8 +3956,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3777,8 +3998,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,8 +4086,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3900,8 +4130,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,8 +4150,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3958,8 +4192,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,8 +4324,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4122,8 +4368,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4163,8 +4412,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4202,6 +4454,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>ANTE</t>
   </si>
@@ -1080,8 +1080,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>12400</v>
       </c>
       <c r="E17" s="3">
         <v>13300</v>
@@ -1124,8 +1124,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-9500</v>
       </c>
       <c r="E18" s="3">
         <v>-4500</v>
@@ -1186,8 +1186,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-1400</v>
       </c>
       <c r="E20" s="3">
         <v>-2200</v>
@@ -1450,8 +1450,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-11100</v>
       </c>
       <c r="E26" s="3">
         <v>-6700</v>
@@ -1494,8 +1494,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-10900</v>
       </c>
       <c r="E27" s="3">
         <v>-6500</v>
@@ -1714,8 +1714,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>1400</v>
       </c>
       <c r="E32" s="3">
         <v>2200</v>
@@ -1758,8 +1758,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-10900</v>
       </c>
       <c r="E33" s="3">
         <v>-6500</v>
@@ -1846,8 +1846,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-10900</v>
       </c>
       <c r="E35" s="3">
         <v>-6500</v>
@@ -3574,8 +3574,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-10900</v>
       </c>
       <c r="E81" s="3">
         <v>-6500</v>

--- a/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>ANTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3">
         <v>7900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>21700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>31200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>29500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-5000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-8500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-4300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-3800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-14700</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-20500</v>
       </c>
       <c r="N10" s="3">
         <v>-20500</v>
       </c>
       <c r="O10" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="P10" s="3">
         <v>-12100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,29 +897,30 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
       </c>
       <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,8 +989,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,30 +1003,30 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>67300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1016,8 +1036,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>12400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>124400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>78200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>60500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>45900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-4600</v>
       </c>
       <c r="G18" s="3">
         <v>-4600</v>
       </c>
       <c r="H18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-23700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-111300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-67500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-51500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-38400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,52 +1214,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1269,8 +1306,11 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1313,96 +1353,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-109400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-66600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-49300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-35500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-10200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-28400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-109600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-67000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-54700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-34500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-21700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-71600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-104100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-52400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-37000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-28600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,31 +1635,34 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1618,11 +1679,14 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-71600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-104100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-52400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-37000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-28600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-71600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-104100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-52400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-37000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-28600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,64 +2056,68 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>54100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>117500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>218600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>123900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>400</v>
+      </c>
+      <c r="E42" s="3">
         <v>700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2043,8 +2133,8 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2053,57 +2143,63 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>3600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>13200</v>
       </c>
       <c r="L43" s="3">
         <v>13200</v>
       </c>
       <c r="M43" s="3">
+        <v>13200</v>
+      </c>
+      <c r="N43" s="3">
         <v>10900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2146,184 +2242,199 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E45" s="3">
         <v>32200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>47900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>62400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>70000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>95400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>77100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>38500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>188800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E46" s="3">
         <v>36600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>58600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>40200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>38900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>63600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>66400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>79900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>98600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>160400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>205200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>272700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E47" s="3">
         <v>39600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>41200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>42500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>41000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>43000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>45500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>46300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>100300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>102400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>102000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>83900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>90200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E48" s="3">
         <v>19300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>39900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>61000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>43700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2355,19 +2466,22 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>1500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>900</v>
       </c>
       <c r="H52" s="3">
         <v>900</v>
       </c>
       <c r="I52" s="3">
+        <v>900</v>
+      </c>
+      <c r="J52" s="3">
         <v>3500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>49300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E54" s="3">
         <v>96000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>98900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>115100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>95800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>97700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>128800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>129800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>203200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>225000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>334200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>381200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>457900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,82 +2752,86 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E57" s="3">
         <v>18400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>39300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>48500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>51700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E58" s="3">
         <v>15200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>6100</v>
       </c>
       <c r="J58" s="3">
         <v>6100</v>
       </c>
       <c r="K58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L58" s="3">
         <v>6200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2707,99 +2841,108 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E59" s="3">
         <v>71400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>68800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>85900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>77100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>77900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>76400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>67200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>50700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>49800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>40100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>204900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E60" s="3">
         <v>105000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>98000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>113800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>117800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>113500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>116000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>112700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>78200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>75800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>102400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>90200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>67300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>238800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2807,26 +2950,26 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>2600</v>
       </c>
       <c r="G61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H61" s="3">
         <v>2500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2842,8 +2985,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2857,37 +3003,40 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>24700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E66" s="3">
         <v>71500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>67400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>83500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>79900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>77200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>76600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>77400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>111100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>112500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>102700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>254300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-306700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-304900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-292800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-286400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-299100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-293900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-267200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-262400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-190900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-172300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-68300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E76" s="3">
         <v>24500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>46700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>51400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>126600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>147600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>223100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>268700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>355200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>211900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-71600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-104100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-52400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-37000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-28600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,8 +3829,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3675,8 +3874,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,8 +4109,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3939,8 +4156,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,8 +4177,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4001,8 +4222,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,8 +4316,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4133,8 +4363,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,8 +4384,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4195,8 +4429,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,8 +4570,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4371,8 +4617,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4415,8 +4664,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4457,6 +4709,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>ANTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>21700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>29500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-5000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-8500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-4300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-3800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-14700</v>
-      </c>
-      <c r="N10" s="3">
-        <v>-20500</v>
       </c>
       <c r="O10" s="3">
         <v>-20500</v>
       </c>
       <c r="P10" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,22 +921,22 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
       </c>
       <c r="G12" s="3">
+        <v>200</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,13 +1009,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>4500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1006,29 +1026,29 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>67300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1039,8 +1059,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1109,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>10400</v>
       </c>
       <c r="E17" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F17" s="3">
         <v>12400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>124400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>78200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>60500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>45900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-10000</v>
       </c>
       <c r="E18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-4600</v>
       </c>
       <c r="H18" s="3">
         <v>-4600</v>
       </c>
       <c r="I18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-23700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-27400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-21300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-111300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-67500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-51500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-38400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,55 +1248,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-1300</v>
       </c>
       <c r="E20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1309,8 +1346,11 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1356,55 +1396,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-109400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-66600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-49300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-35500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1412,46 +1458,49 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-10200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-11300</v>
       </c>
       <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-109600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-67000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-54700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-21700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-11600</v>
       </c>
       <c r="E27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-71600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-104100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-52400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-37000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1664,8 +1725,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1682,11 +1743,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>1300</v>
       </c>
       <c r="E32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-11600</v>
       </c>
       <c r="E33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-71600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-104100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-52400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-37000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-11600</v>
       </c>
       <c r="E35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-71600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-104100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-52400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-37000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,69 +2143,73 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E41" s="3">
         <v>5700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>54100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>117500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>218600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>123900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2100</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2136,8 +2226,8 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2146,60 +2236,66 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>3600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>13200</v>
       </c>
       <c r="M43" s="3">
         <v>13200</v>
       </c>
       <c r="N43" s="3">
+        <v>13200</v>
+      </c>
+      <c r="O43" s="3">
         <v>10900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2245,196 +2341,211 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E45" s="3">
         <v>64200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>47900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>44500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>62400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>70000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>95400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>77100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>38500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>188800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E46" s="3">
         <v>71300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>36600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>58600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>40200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>38900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>63600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>66400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>79900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>98600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>160400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>205200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>272700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E47" s="3">
         <v>36400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>39600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>41200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>42500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>41000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>43000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>45500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>46300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>100300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>102400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>102000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>83900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>90200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E48" s="3">
         <v>17500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>39900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>61000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>43700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2469,19 +2580,22 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>1500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,8 +2691,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2583,46 +2703,49 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>900</v>
       </c>
       <c r="I52" s="3">
         <v>900</v>
       </c>
       <c r="J52" s="3">
+        <v>900</v>
+      </c>
+      <c r="K52" s="3">
         <v>3500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>30400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>49300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E54" s="3">
         <v>125600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>96000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>98900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>115100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>97700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>128800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>129800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>203200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>225000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>334200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>381200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>457900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,87 +2883,91 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E57" s="3">
         <v>16700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>35500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>48500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>51700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E58" s="3">
         <v>14400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>6100</v>
       </c>
       <c r="K58" s="3">
         <v>6100</v>
       </c>
       <c r="L58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="M58" s="3">
         <v>6200</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -2844,105 +2978,114 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E59" s="3">
         <v>67300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>71400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>68800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>85900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>77100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>77900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>76400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>67200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>50700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>49800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>40100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>204900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>101800</v>
+      </c>
+      <c r="E60" s="3">
         <v>98500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>105000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>98000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>113800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>117800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>113500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>116000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>112700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>78200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>75800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>102400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>90200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>67300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>238800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2953,26 +3096,26 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>2600</v>
       </c>
       <c r="H61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I61" s="3">
         <v>2500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2988,8 +3131,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3006,37 +3152,40 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>24700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E66" s="3">
         <v>65800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>71500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>67400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>83500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>79900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>77200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>76600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>77400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>111100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>112500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>102700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>254300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-318200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-306700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-304900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-292800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-286400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-299100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-293900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-267200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-262400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-190900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-172300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-68300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E76" s="3">
         <v>59800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>46700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>126600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>147600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>223100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>268700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>355200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>211900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-11600</v>
       </c>
       <c r="E81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-71600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-104100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-52400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-37000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,8 +4028,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3877,8 +4076,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,8 +4326,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4159,8 +4376,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,8 +4398,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4225,8 +4446,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,8 +4546,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4366,8 +4596,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,8 +4618,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4432,8 +4666,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,8 +4816,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4620,8 +4866,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4667,8 +4916,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4712,6 +4964,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>
